--- a/SocialMediaAnalysis/inputData.xlsx
+++ b/SocialMediaAnalysis/inputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/xzha897_uoa_auckland_ac_nz/Documents/Documents/GitHub/social-media-analysis/SocialMediaAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9182d5ff36a4cead/Documents/social-media-analysis/SocialMediaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{26F782DE-B412-4B71-9FD1-5879FF871986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E24CAF-1587-49EA-9101-A4D8F6810E33}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{26F782DE-B412-4B71-9FD1-5879FF871986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27D354C-6097-40D7-B2B6-0F5EC025F02F}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/SocialMediaAnalysis/inputData.xlsx
+++ b/SocialMediaAnalysis/inputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjak923\Documents\social-media-analysis\SocialMediaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FA82EC-E58C-4D3C-8652-664BEB733842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7471B6-990B-4274-BA59-DB9AE126E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/SocialMediaAnalysis/inputData.xlsx
+++ b/SocialMediaAnalysis/inputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjak923\Documents\social-media-analysis\SocialMediaAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jetsh\Desktop\social-media-analysis-reddit-v2\SocialMediaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7471B6-990B-4274-BA59-DB9AE126E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C2DE2-107B-42F0-B662-CD4EE1E47F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4905" yWindow="1650" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
